--- a/Yuhang_Fu/Z-score/Z_score_ANDI.xlsx
+++ b/Yuhang_Fu/Z-score/Z_score_ANDI.xlsx
@@ -515,28 +515,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3711340707137423</v>
+        <v>-0.3503679880094964</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01683819008900909</v>
+        <v>-0.6817253031442242</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4136360168057854</v>
+        <v>-0.7825348293132602</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4443456053094438</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.04448063663119286</v>
+        <v>-0.7206180522567107</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.781133146127857</v>
+        <v>-1.295346799651229</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3691202860247367</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="3">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.03172873751046926</v>
+        <v>-0.6604345061291368</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.052810068563378</v>
+        <v>-1.305586830107502</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.893240765878899</v>
+        <v>-2.199929451024094</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3254083705965169</v>
+        <v>-0.3846922750161304</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.757013086242261</v>
+        <v>-2.276969853013291</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.813438352332087</v>
+        <v>-3.053359054762546</v>
       </c>
     </row>
     <row r="4">
@@ -603,28 +603,28 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.9717419567002962</v>
+        <v>-1.383923048408298</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.296988919796616</v>
+        <v>-1.505404448388448</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.3839749736190498</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.8784122165627567</v>
+        <v>-1.47797798639911</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.609670128612429</v>
+        <v>-1.122874711770792</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3691202860247367</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="5">
@@ -647,28 +647,28 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1890997647753948</v>
+        <v>-0.4904721184191117</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2159680902720722</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5734295297451837</v>
+        <v>-0.9132978295118207</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3236043419286558</v>
+        <v>-0.2671508837040874</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2025241215375779</v>
+        <v>-0.8641499752595041</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.138651778394069</v>
+        <v>-1.654969450976395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1889754574385014</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="6">
@@ -691,28 +691,28 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-2.001280244384392</v>
+        <v>-2.176315261380712</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.858959364178994</v>
+        <v>-1.965278819873273</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6254575003806256</v>
+        <v>-0.6388390697271655</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.688805405125284</v>
+        <v>-2.2139608256262</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.501642634623539</v>
+        <v>-2.020096530638172</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.8918935140789104</v>
+        <v>-1.035521254132119</v>
       </c>
     </row>
     <row r="7">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1.123934573140554</v>
+        <v>-1.501059288586828</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5146629405466669</v>
+        <v>-1.13245277629743</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5447026060706851</v>
+        <v>-0.8897898744199447</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03861944821370795</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4782595632891434</v>
+        <v>-1.114567372838846</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.3944293193909342</v>
+        <v>-0.9063671971974768</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2914107521247927</v>
+        <v>-0.4049469414351101</v>
       </c>
     </row>
     <row r="8">
@@ -779,28 +779,28 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6068834177486512</v>
+        <v>-0.1689216551839291</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08272676000252248</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7767358829562484</v>
+        <v>0.1915760598063531</v>
       </c>
       <c r="H8" t="n">
-        <v>1.849738398925527</v>
+        <v>2.409004055662075</v>
       </c>
       <c r="I8" t="n">
-        <v>0.715473141854829</v>
+        <v>-0.03044327356242759</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05647038338877162</v>
+        <v>-0.550533787185201</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9499137009161984</v>
+        <v>0.4458873641629719</v>
       </c>
       <c r="L8" t="n">
-        <v>1.209796152760501</v>
+        <v>1.171488840307411</v>
       </c>
     </row>
     <row r="9">
@@ -823,28 +823,28 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1920839337252038</v>
+        <v>-0.4881753293960032</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01683819008900909</v>
+        <v>-0.6817253031442242</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2973553441380538</v>
+        <v>-0.2007129407893283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5047162369998377</v>
+        <v>-0.4901637953179343</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3101281963674571</v>
+        <v>-0.9618738377294911</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07618194144928318</v>
+        <v>-0.4329863602490429</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.9519417902743221</v>
+        <v>-1.09857868540182</v>
       </c>
     </row>
     <row r="10">
@@ -867,28 +867,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.8434226918585103</v>
+        <v>-1.285161120414634</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3814216102771172</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7799042936556421</v>
+        <v>-1.08226125673468</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.168793185594171</v>
+        <v>-1.307877804568706</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7170061043179379</v>
+        <v>-1.331392192694129</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2350743866648864</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.8577442816134738</v>
+        <v>-1.372408796363764</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.192134895055969</v>
+        <v>-1.350808410480623</v>
       </c>
     </row>
     <row r="11">
@@ -911,28 +911,28 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8993319748299307</v>
+        <v>0.05616366908069875</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G11" t="n">
-        <v>2.433920292428884</v>
+        <v>1.547691219168952</v>
       </c>
       <c r="H11" t="n">
-        <v>1.487514608783163</v>
+        <v>1.962978232434382</v>
       </c>
       <c r="I11" t="n">
-        <v>1.287119789388562</v>
+        <v>0.4887147458093783</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05647038338877162</v>
+        <v>-0.550533787185201</v>
       </c>
       <c r="K11" t="n">
-        <v>2.460247514775501</v>
+        <v>1.965109585067248</v>
       </c>
       <c r="L11" t="n">
-        <v>2.590906505254972</v>
+        <v>2.621809759510531</v>
       </c>
     </row>
     <row r="12">
@@ -955,28 +955,28 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.824424349270713</v>
+        <v>0.7681682662443173</v>
       </c>
       <c r="F12" t="n">
-        <v>0.879246360734775</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G12" t="n">
-        <v>1.297411374556535</v>
+        <v>0.6176577458466063</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5819551334272537</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I12" t="n">
-        <v>1.848678554906994</v>
+        <v>0.9987111530746229</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2350743866648864</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K12" t="n">
-        <v>1.586515755308586</v>
+        <v>1.086235860655233</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.4115073045156163</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="13">
@@ -999,28 +999,28 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3621815638643153</v>
+        <v>-0.3572583550788218</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G13" t="n">
-        <v>1.825268597075446</v>
+        <v>1.049616420659828</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2801019749752838</v>
+        <v>0.4762254883420689</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6952973778242266</v>
+        <v>-0.04876649777555015</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K13" t="n">
-        <v>1.960451059464572</v>
+        <v>1.462371796990229</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3691202860247367</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="14">
@@ -1043,28 +1043,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.6971984133178705</v>
+        <v>-1.17261845828232</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1164031401805407</v>
+        <v>-0.7718707977748654</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1227759146014876</v>
+        <v>-0.5445167840080154</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.9273106588325954</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.904013554785043</v>
+        <v>-2.409408550566174</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3999015433541925</v>
+        <v>-0.9118716255340865</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.432327999837616</v>
+        <v>-1.603038135559426</v>
       </c>
     </row>
     <row r="15">
@@ -1087,28 +1087,28 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.4912907557810513</v>
+        <v>-1.014140015687838</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2322973111105133</v>
+        <v>-0.6341408627957927</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4443456053094438</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.255026478467334</v>
+        <v>-1.820011505044064</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.8267350124883432</v>
+        <v>-1.341217035789643</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.072038342665146</v>
+        <v>-1.224693547941221</v>
       </c>
     </row>
     <row r="16">
@@ -1131,28 +1131,28 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5322791940034268</v>
+        <v>-0.2263413807616403</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.4854533259920318</v>
+        <v>-0.8413047170429504</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1424924468574739</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I16" t="n">
-        <v>1.152614695851213</v>
+        <v>0.3665599177218946</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07618194144928318</v>
+        <v>-0.4329863602490429</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.9519417902743221</v>
+        <v>-1.09857868540182</v>
       </c>
     </row>
     <row r="17">
@@ -1175,28 +1175,28 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3293557054164166</v>
+        <v>-0.3825230343330147</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G17" t="n">
-        <v>1.983266677285188</v>
+        <v>1.178910173665147</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9441789235696174</v>
+        <v>1.293939497592841</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6683963591167569</v>
+        <v>-0.07319746339304689</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K17" t="n">
-        <v>2.270543750715878</v>
+        <v>1.774289402731445</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1889754574385014</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="18">
@@ -1219,28 +1219,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.60061167803504</v>
+        <v>0.5959090895111838</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2818566601855856</v>
+        <v>-0.4112888192523005</v>
       </c>
       <c r="G18" t="n">
-        <v>1.071186850619859</v>
+        <v>0.4325325994980825</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09899007990410191</v>
+        <v>0.253212576728222</v>
       </c>
       <c r="I18" t="n">
-        <v>2.32280900962615</v>
+        <v>1.429306922083003</v>
       </c>
       <c r="J18" t="n">
-        <v>3.628550448911067</v>
+        <v>1.798410371471657</v>
       </c>
       <c r="K18" t="n">
-        <v>1.53726573963926</v>
+        <v>1.036696005625746</v>
       </c>
       <c r="L18" t="n">
-        <v>2.53085822905956</v>
+        <v>2.55875232824083</v>
       </c>
     </row>
     <row r="19">
@@ -1263,28 +1263,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.3211931256419397</v>
+        <v>-0.8832230413706561</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4809865603686487</v>
+        <v>-0.2309978299910181</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1142212057131255</v>
+        <v>-0.350576154500038</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2801019749752838</v>
+        <v>0.4762254883420689</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3370292150749269</v>
+        <v>-0.9863048033469879</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.03691068712472254</v>
+        <v>-0.54674454587231</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3090720098293249</v>
+        <v>0.2256273712618984</v>
       </c>
     </row>
     <row r="20">
@@ -1307,28 +1307,28 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.19257045898616</v>
+        <v>-1.553885436118323</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.043832904915097</v>
+        <v>-1.298240594141291</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03861944821370795</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.08016985686878</v>
+        <v>-1.661210228530335</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.1445310917354699</v>
+        <v>-0.6549983031589673</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.4115073045156163</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="21">
@@ -1351,28 +1351,28 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.6822775685688256</v>
+        <v>-1.161134513166778</v>
       </c>
       <c r="F21" t="n">
-        <v>1.078376260917838</v>
+        <v>0.3098751377928292</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.06711749998214663</v>
+        <v>-0.4989701210175055</v>
       </c>
       <c r="H21" t="n">
-        <v>1.366773345402375</v>
+        <v>1.81430295802515</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01757961792372306</v>
+        <v>-0.6961870866392139</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.5640682622519428</v>
+        <v>-1.077004475632377</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6693616670017956</v>
+        <v>0.6039719588801035</v>
       </c>
     </row>
     <row r="22">
@@ -1395,28 +1395,28 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.5748474863757026</v>
+        <v>-1.078450108334874</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.3155330403636038</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.7439956390625189</v>
+        <v>-1.052876312869835</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.8669400271422015</v>
+        <v>-0.9361896185456281</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.4715343086122759</v>
+        <v>-1.108459631434472</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.342948139689047</v>
+        <v>-1.860468108876491</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.5316038569064399</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="23">
@@ -1439,28 +1439,28 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.110601166638381</v>
+        <v>1.758084335204058</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3155330403636038</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G23" t="n">
-        <v>2.103560670172151</v>
+        <v>1.277349735612378</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7630670284984356</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I23" t="n">
-        <v>2.141227133350728</v>
+        <v>1.2643979041649</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K23" t="n">
-        <v>1.238117496314471</v>
+        <v>0.7357872565577492</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7894582193926191</v>
+        <v>0.7300868214195052</v>
       </c>
     </row>
     <row r="24">
@@ -1483,28 +1483,28 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.147017997664076</v>
+        <v>0.2467971579986999</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4517625588884835</v>
+        <v>-0.07435768217049461</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3404726066656778</v>
+        <v>0.5505631255466845</v>
       </c>
       <c r="I24" t="n">
-        <v>1.135801559159045</v>
+        <v>0.3512905642109591</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.3506515276848675</v>
+        <v>-0.8623317705045992</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1289271812430896</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="25">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.000793719123436</v>
+        <v>0.134254495866386</v>
       </c>
       <c r="F25" t="n">
-        <v>1.874895861650091</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9347339631659904</v>
+        <v>0.3208698128116713</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5819551334272537</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9743954469142259</v>
+        <v>0.2047047705059786</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9494903997693456</v>
+        <v>0.0367022524790134</v>
       </c>
       <c r="K25" t="n">
-        <v>1.311080482491249</v>
+        <v>0.8091796343792118</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1889754574385014</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="26">
@@ -1571,28 +1571,28 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.281609002219473</v>
+        <v>-0.4192716587027498</v>
       </c>
       <c r="F26" t="n">
-        <v>1.277506161100901</v>
+        <v>0.4901661270541116</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.7027006862804271</v>
+        <v>-1.019083627425263</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.2632337102382619</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2596887862909513</v>
+        <v>-0.9160657771966847</v>
       </c>
       <c r="J26" t="n">
-        <v>0.592282393217116</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.6808090401347874</v>
+        <v>-1.194432280146718</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.4115073045156163</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="27">
@@ -1615,28 +1615,28 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.8344701850090833</v>
+        <v>-1.278270753345309</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.5626569333672466</v>
+        <v>-0.9044823463523672</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1424924468574739</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.9154011172855276</v>
+        <v>-1.511570564123168</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003218955272505297</v>
+        <v>-0.5063787380705056</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.4115073045156163</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="28">
@@ -1659,28 +1659,28 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.2216222214093</v>
+        <v>0.304216883576411</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G28" t="n">
-        <v>1.938380859043784</v>
+        <v>1.14217899383409</v>
       </c>
       <c r="H28" t="n">
-        <v>1.849738398925527</v>
+        <v>2.409004055662075</v>
       </c>
       <c r="I28" t="n">
-        <v>1.8991179649835</v>
+        <v>1.044519213607429</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K28" t="n">
-        <v>1.641237994941169</v>
+        <v>1.14128014402133</v>
       </c>
       <c r="L28" t="n">
-        <v>1.51003753373756</v>
+        <v>1.486775996655915</v>
       </c>
     </row>
     <row r="29">
@@ -1703,28 +1703,28 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.224606390359109</v>
+        <v>0.3065136725995195</v>
       </c>
       <c r="F29" t="n">
-        <v>2.074025761833154</v>
+        <v>1.211330084099241</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07789009636008359</v>
+        <v>-0.5077856041769591</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6423257651176476</v>
+        <v>0.9222513115697627</v>
       </c>
       <c r="I29" t="n">
-        <v>1.260218770681092</v>
+        <v>0.4642837801918815</v>
       </c>
       <c r="J29" t="n">
-        <v>2.556926429254379</v>
+        <v>1.093727123874599</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.124466270536856</v>
+        <v>-0.6348153992580651</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.5316038569064399</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="30">
@@ -1747,28 +1747,28 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-1.091108714692655</v>
+        <v>-1.475794609332636</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4279994786430347</v>
+        <v>-0.7942888068591983</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.6858281320710197</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.342454789266611</v>
+        <v>-1.899412143300929</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.1221336198873432</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03970044836089424</v>
+        <v>-0.4696825491597743</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.5316038569064399</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="31">
@@ -1791,28 +1791,28 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.9112686506291666</v>
+        <v>0.06535082517313254</v>
       </c>
       <c r="F31" t="n">
-        <v>1.874895861650091</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G31" t="n">
-        <v>1.274070749071005</v>
+        <v>0.598557532334457</v>
       </c>
       <c r="H31" t="n">
-        <v>1.728997135544739</v>
+        <v>2.260328781252844</v>
       </c>
       <c r="I31" t="n">
-        <v>1.108900540451575</v>
+        <v>0.3268595985934624</v>
       </c>
       <c r="J31" t="n">
-        <v>0.592282393217116</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K31" t="n">
-        <v>1.177923032718629</v>
+        <v>0.6752385448550425</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1289271812430896</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="32">
@@ -1835,28 +1835,28 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.517358349254382</v>
+        <v>-0.2378253258771825</v>
       </c>
       <c r="F32" t="n">
-        <v>1.576201011375496</v>
+        <v>0.7606026109460352</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6546464573396296</v>
+        <v>0.0916672506658799</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6423257651176476</v>
+        <v>0.9222513115697627</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.07138165533866266</v>
+        <v>-0.7450490178742074</v>
       </c>
       <c r="J32" t="n">
-        <v>1.12809440304546</v>
+        <v>0.1541494604118563</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7802747580551899</v>
+        <v>0.2752500857280713</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.1112659235385575</v>
+        <v>-0.2157746476260076</v>
       </c>
     </row>
     <row r="33">
@@ -1879,28 +1879,28 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2010364405746307</v>
+        <v>-0.4812849623266779</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7444180938224375</v>
+        <v>0.1651296103279925</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02175118347668601</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3993861720420588</v>
+        <v>-0.3175071195680144</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4391727976787532</v>
+        <v>-0.06785928058726641</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.231362475929381</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="34">
@@ -1923,28 +1923,28 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.370527267085755</v>
+        <v>1.188480657473163</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6142278906381985</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G34" t="n">
-        <v>1.322547432771721</v>
+        <v>0.6382272065519978</v>
       </c>
       <c r="H34" t="n">
-        <v>-4.911772350398597</v>
+        <v>-5.916811311254875</v>
       </c>
       <c r="I34" t="n">
-        <v>2.58509394202398</v>
+        <v>1.667508836853596</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.1221336198873432</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K34" t="n">
-        <v>1.154210062211177</v>
+        <v>0.6513860220630673</v>
       </c>
       <c r="L34" t="n">
-        <v>3.011244438622855</v>
+        <v>3.063211778398437</v>
       </c>
     </row>
     <row r="35">
@@ -1967,28 +1967,28 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.3689398288388834</v>
+        <v>-0.9199716657403914</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.9558567011619457</v>
+        <v>-1.22624748167242</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03861944821370795</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.898587980593359</v>
+        <v>-1.496301210612232</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.33200369176253</v>
+        <v>-1.849459252203271</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.9519417902743221</v>
+        <v>-1.09857868540182</v>
       </c>
     </row>
     <row r="36">
@@ -2011,28 +2011,28 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.9440945090770653</v>
+        <v>0.09061550442732545</v>
       </c>
       <c r="F36" t="n">
-        <v>2.074025761833154</v>
+        <v>1.211330084099241</v>
       </c>
       <c r="G36" t="n">
-        <v>1.020914734189486</v>
+        <v>0.3913936780872994</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8838082918792235</v>
+        <v>1.219601860388225</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9374065461914548</v>
+        <v>0.1711121927819206</v>
       </c>
       <c r="J36" t="n">
-        <v>2.199718422702149</v>
+        <v>0.8588327080089135</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7401451156579619</v>
+        <v>0.2348842779262669</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7294099431972073</v>
+        <v>0.6670293901498043</v>
       </c>
     </row>
     <row r="37">
@@ -2055,28 +2055,28 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.030635408621525</v>
+        <v>0.1572223860974704</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.01683819008900909</v>
+        <v>-0.6817253031442242</v>
       </c>
       <c r="G37" t="n">
-        <v>0.591806311801664</v>
+        <v>0.04024359890240107</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.349905080665353</v>
+        <v>-1.530890716182553</v>
       </c>
       <c r="I37" t="n">
-        <v>1.169427832543382</v>
+        <v>0.38182927123283</v>
       </c>
       <c r="J37" t="n">
-        <v>1.663906412873805</v>
+        <v>0.5064910842103849</v>
       </c>
       <c r="K37" t="n">
-        <v>0.430052424406656</v>
+        <v>-0.07703332781494923</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2490237336339131</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="38">
@@ -2099,28 +2099,28 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1.353715582275845</v>
+        <v>-1.677912043366179</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.01683819008900909</v>
+        <v>-0.6817253031442242</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.5393163078817166</v>
+        <v>-0.8853821328402179</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.7461987637614136</v>
+        <v>-0.7875143441363969</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.174323422344924</v>
+        <v>-1.746718608191574</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.8285590871427626</v>
+        <v>-1.343051845235179</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.8918935140789104</v>
+        <v>-1.035521254132119</v>
       </c>
     </row>
     <row r="39">
@@ -2143,28 +2143,28 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-0.3659556598890744</v>
+        <v>-0.9176748767172829</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.015105981240599</v>
+        <v>-1.274732639049415</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4008432383560717</v>
+        <v>0.6249007627513001</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.08483216469239756</v>
+        <v>-0.7572645006829558</v>
       </c>
       <c r="J39" t="n">
-        <v>1.306698406321575</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.8577442816134738</v>
+        <v>-1.372408796363764</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3691202860247367</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="40">
@@ -2187,28 +2187,28 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-2.087821143928852</v>
+        <v>-2.242922143050857</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.165922330531716</v>
+        <v>-1.398149403281764</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02175118347668601</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.090257738884081</v>
+        <v>-1.670371840636897</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.5823090087961372</v>
+        <v>-1.095352570087743</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.5316038569064399</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="41">
@@ -2231,28 +2231,28 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.4755799839570564</v>
+        <v>-0.2699803722007008</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8736892503576811</v>
+        <v>0.2709154082414347</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.1424924468574739</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2615184511662761</v>
+        <v>-0.4427158183576852</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K41" t="n">
-        <v>1.156034136865596</v>
+        <v>0.6532208315086038</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9696030479788543</v>
+        <v>0.9192591152286077</v>
       </c>
     </row>
     <row r="42">
@@ -2275,28 +2275,28 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-1.831182614245281</v>
+        <v>-2.04539828706353</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2159680902720722</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.286216323418679</v>
+        <v>-1.496588965228995</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.3236043419286558</v>
+        <v>-0.2671508837040874</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.470234628127092</v>
+        <v>-2.015459229984038</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.324707393144852</v>
+        <v>-1.842120014421125</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.072038342665146</v>
+        <v>-1.224693547941221</v>
       </c>
     </row>
     <row r="43">
@@ -2319,28 +2319,28 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.5360532900281859</v>
+        <v>-1.048591851034464</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5146629405466669</v>
+        <v>-1.13245277629743</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2502516384070749</v>
+        <v>-0.6488333347282152</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5819551334272537</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.42109489853577</v>
+        <v>-1.062651570901665</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.1221336198873432</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.3999015433541925</v>
+        <v>-0.9118716255340865</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5492651146109719</v>
+        <v>0.4778570963407018</v>
       </c>
     </row>
     <row r="44">
@@ -2363,28 +2363,28 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.8605377784824141</v>
+        <v>0.02630541178028893</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.9899699230254126</v>
+        <v>-1.254163178344023</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4008432383560717</v>
+        <v>0.6249007627513001</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8836045087765152</v>
+        <v>0.1222502615469271</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.352068512961144</v>
+        <v>-1.869642156104174</v>
       </c>
       <c r="L44" t="n">
-        <v>0.4892168384155602</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="45">
@@ -2407,28 +2407,28 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.6397092761965499</v>
+        <v>-0.1436569759297362</v>
       </c>
       <c r="F45" t="n">
-        <v>1.476636061283964</v>
+        <v>0.6704571163153941</v>
       </c>
       <c r="G45" t="n">
-        <v>1.040664494215704</v>
+        <v>0.4075553972129642</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1593607115944959</v>
+        <v>0.3275502139328376</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2211669231050714</v>
+        <v>-0.4793622667839303</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.1221336198873432</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8696544161217428</v>
+        <v>0.365155748559363</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2490237336339131</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="46">
@@ -2451,28 +2451,28 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.8038385684360435</v>
+        <v>-0.01733357965877156</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.3155330403636038</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G46" t="n">
-        <v>0.997574108703956</v>
+        <v>0.3722934645751501</v>
       </c>
       <c r="H46" t="n">
-        <v>3.902339876398922</v>
+        <v>4.936483720619007</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8869671361149489</v>
+        <v>0.1253041322491142</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K46" t="n">
-        <v>1.362154572814994</v>
+        <v>0.8605542988542357</v>
       </c>
       <c r="L46" t="n">
-        <v>2.650954781450384</v>
+        <v>2.684867190780231</v>
       </c>
     </row>
     <row r="47">
@@ -2495,28 +2495,28 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.4158966049608769</v>
+        <v>-0.3159161526628697</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.2159680902720722</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.555475202448622</v>
+        <v>-0.8986053575793982</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.6858281320710197</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2783315878584448</v>
+        <v>-0.4274464648467498</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.8048461166353098</v>
+        <v>-1.319199322443204</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.6517004092972634</v>
+        <v>-0.7832915290533152</v>
       </c>
     </row>
     <row r="48">
@@ -2539,28 +2539,28 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.3749081667385013</v>
+        <v>-0.9245652437866082</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1788567839807473</v>
+        <v>-0.297683255543317</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.2632337102382619</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.06129377332336148</v>
+        <v>-0.7358874057676462</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01233932854460253</v>
+        <v>-0.4972046908428227</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.231362475929381</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="49">
@@ -2583,28 +2583,28 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.6277726003973141</v>
+        <v>-0.15284413202217</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G49" t="n">
-        <v>1.94017629177344</v>
+        <v>1.143648241027333</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.3839749736190498</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6852094958089254</v>
+        <v>-0.05792810988211143</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.1221336198873432</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5905709939955673</v>
+        <v>0.08442990339226852</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.4115073045156163</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="50">
@@ -2627,28 +2627,28 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.6822775685688256</v>
+        <v>-1.161134513166778</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.183876657828278</v>
+        <v>-1.412841875214186</v>
       </c>
       <c r="H50" t="n">
-        <v>2.513815347519861</v>
+        <v>3.226718064912847</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.174323422344924</v>
+        <v>-1.746718608191574</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K50" t="n">
-        <v>-1.423207424483502</v>
+        <v>-1.9411997244801</v>
       </c>
       <c r="L50" t="n">
-        <v>1.209796152760501</v>
+        <v>1.171488840307411</v>
       </c>
     </row>
     <row r="51">
@@ -2671,28 +2671,28 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.3420823082906026</v>
+        <v>-0.8993005645324152</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.1164031401805407</v>
+        <v>-0.7718707977748654</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02804043468962983</v>
+        <v>-0.4211000197756662</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03861944821370795</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.6833798309336007</v>
+        <v>-1.300853485672258</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.355716662269983</v>
+        <v>-1.873311774995247</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.852665933205499</v>
+        <v>-2.044440154447332</v>
       </c>
     </row>
     <row r="52">
@@ -2715,28 +2715,28 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.5412317008528538</v>
+        <v>-0.2194510136923149</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.4010679876981924</v>
+        <v>-0.7722500989605645</v>
       </c>
       <c r="H52" t="n">
-        <v>0.09899007990410191</v>
+        <v>0.253212576728222</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2110790410897702</v>
+        <v>-0.4885238788904916</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1400245543539639</v>
+        <v>-0.3687680296552631</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.7717969616880869</v>
+        <v>-0.909406391592717</v>
       </c>
     </row>
     <row r="53">
@@ -2759,28 +2759,28 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.2756406643198551</v>
+        <v>-0.4238652367489667</v>
       </c>
       <c r="F53" t="n">
-        <v>0.879246360734775</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G53" t="n">
-        <v>0.119607503902094</v>
+        <v>-0.3461684129203113</v>
       </c>
       <c r="H53" t="n">
-        <v>1.246032082021587</v>
+        <v>1.665627683615919</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1740901403669993</v>
+        <v>-0.5221164566145496</v>
       </c>
       <c r="J53" t="n">
-        <v>0.592282393217116</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.2083737046401506</v>
+        <v>-0.7192166337527471</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4892168384155602</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="54">
@@ -2803,28 +2803,28 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.3502448880650794</v>
+        <v>-0.3664455111712555</v>
       </c>
       <c r="F54" t="n">
-        <v>1.078376260917838</v>
+        <v>0.3098751377928292</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2452877949780251</v>
+        <v>-0.2433211093933536</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.229163817284565</v>
+        <v>-1.382215441773322</v>
       </c>
       <c r="I54" t="n">
-        <v>0.483451855502902</v>
+        <v>-0.241160352013337</v>
       </c>
       <c r="J54" t="n">
-        <v>0.592282393217116</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2148116151851612</v>
+        <v>-0.2935408423882639</v>
       </c>
       <c r="L54" t="n">
-        <v>0.06887890504767785</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="55">
@@ -2847,28 +2847,28 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-0.4375757146844897</v>
+        <v>-0.9727978132718856</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2488786604373375</v>
+        <v>-0.2403826150068691</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.8065693954518075</v>
+        <v>-0.8618519813410125</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.1117331833998674</v>
+        <v>-0.7816954663004526</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K55" t="n">
-        <v>0.03058007508879701</v>
+        <v>-0.4788565963874571</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.1112659235385575</v>
+        <v>-0.2157746476260076</v>
       </c>
     </row>
     <row r="56">
@@ -2891,28 +2891,28 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-1.646164139357124</v>
+        <v>-1.902997367630807</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.763801429507218</v>
+        <v>-1.887408718631434</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.9273106588325954</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.456784118773357</v>
+        <v>-2.00324374717529</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K56" t="n">
-        <v>-1.452392618954214</v>
+        <v>-1.970556675608685</v>
       </c>
       <c r="L56" t="n">
-        <v>0.1889754574385014</v>
+        <v>0.09951250872249666</v>
       </c>
     </row>
     <row r="57">
@@ -2935,28 +2935,28 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.546896636938478</v>
+        <v>0.5545668870952318</v>
       </c>
       <c r="F57" t="n">
-        <v>1.576201011375496</v>
+        <v>0.7606026109460352</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5379433299119791</v>
+        <v>-0.003833816894866502</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2801019749752838</v>
+        <v>0.4762254883420689</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7894509433003709</v>
+        <v>0.03674188188568847</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5869228446867284</v>
+        <v>0.08076028450119539</v>
       </c>
       <c r="L57" t="n">
-        <v>0.1289271812430896</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="58">
@@ -2979,28 +2979,28 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.152986335563694</v>
+        <v>0.2513907360449167</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4984438098595437</v>
+        <v>-0.03615725514619605</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8234376601888295</v>
+        <v>1.14526422318361</v>
       </c>
       <c r="I58" t="n">
-        <v>1.478789547679284</v>
+        <v>0.6627853758340426</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8933673866291956</v>
+        <v>0.3890082713513384</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4291685622201484</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="59">
@@ -3023,28 +3023,28 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.168210582126732</v>
+        <v>-0.5065496415808708</v>
       </c>
       <c r="F59" t="n">
-        <v>0.879246360734775</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3691726533243002</v>
+        <v>-0.1419430530596382</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.5047162369998377</v>
+        <v>-0.4901637953179343</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4061114267189263</v>
+        <v>-0.3113993781636402</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K59" t="n">
-        <v>0.4592376188773671</v>
+        <v>-0.04767637668636419</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.132086618860557</v>
+        <v>-1.287750979210922</v>
       </c>
     </row>
     <row r="60">
@@ -3067,28 +3067,28 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-1.273143020631003</v>
+        <v>-1.615898739742251</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.6003610206900261</v>
+        <v>-0.9353365374104545</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4612138700464657</v>
+        <v>0.6992383999559157</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.972565782038901</v>
+        <v>-1.563486366060348</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2350743866648864</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.7300590558041125</v>
+        <v>-1.243972135176205</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.4115073045156163</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="61">
@@ -3111,28 +3111,28 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-0.4763699110320064</v>
+        <v>-1.002656070572295</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0814809618193959</v>
+        <v>-0.5107240985634436</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.2632337102382619</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.6463909302108296</v>
+        <v>-1.2672609079482</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.1992533313680533</v>
+        <v>-0.7100425865250644</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.231362475929381</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="62">
@@ -3155,28 +3155,28 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-0.3868448425377372</v>
+        <v>-0.933752399879042</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.5052030860182496</v>
+        <v>-0.8574664361686152</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.4443456053094438</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.458083799258541</v>
+        <v>-1.096244148625723</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.0660958815954337</v>
+        <v>-0.5761014970008951</v>
       </c>
       <c r="L62" t="n">
-        <v>0.4291685622201484</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="63">
@@ -3199,28 +3199,28 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-1.720768363102349</v>
+        <v>-1.960417093208518</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.6142278906381985</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.029525473496329</v>
+        <v>-2.104857303231288</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.08212181516707998</v>
+        <v>0.0301996651143751</v>
       </c>
       <c r="I63" t="n">
-        <v>-2.337792481442993</v>
+        <v>-2.803357871148308</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K63" t="n">
-        <v>-2.185670630030832</v>
+        <v>-2.708150072714384</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.4115073045156163</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="64">
@@ -3243,28 +3243,28 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1.167907180312738</v>
+        <v>0.262874681160459</v>
       </c>
       <c r="F64" t="n">
-        <v>3.268805162931533</v>
+        <v>2.293076019666936</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6528510246099734</v>
+        <v>0.09019800347263765</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5819551334272537</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I64" t="n">
-        <v>1.229955124635189</v>
+        <v>0.4367989438721977</v>
       </c>
       <c r="J64" t="n">
-        <v>1.306698406321575</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K64" t="n">
-        <v>1.148737838247918</v>
+        <v>0.6458815937264575</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2490237336339131</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="65">
@@ -3287,28 +3287,28 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-0.8314860160592744</v>
+        <v>-1.275973964322201</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7796814106432435</v>
+        <v>0.03943865390090553</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.555475202448622</v>
+        <v>-0.8986053575793982</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8234376601888295</v>
+        <v>1.14526422318361</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.379443689989382</v>
+        <v>-1.933004721024987</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K65" t="n">
-        <v>-1.142299927702908</v>
+        <v>-1.658639069867469</v>
       </c>
       <c r="L65" t="n">
-        <v>0.06887890504767785</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="66">
@@ -3331,28 +3331,28 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-0.300303942993277</v>
+        <v>-0.8671455182088971</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6757691953355848</v>
+        <v>-0.9970449195266291</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.8065693954518075</v>
+        <v>-0.8618519813410125</v>
       </c>
       <c r="I66" t="n">
-        <v>-1.006192055423238</v>
+        <v>-1.594025073082219</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K66" t="n">
-        <v>-1.06751286687171</v>
+        <v>-1.58341188260047</v>
       </c>
       <c r="L66" t="n">
-        <v>-1.432327999837616</v>
+        <v>-1.603038135559426</v>
       </c>
     </row>
     <row r="67">
@@ -3375,28 +3375,28 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.400975760211832</v>
+        <v>-0.3274000977784119</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G67" t="n">
-        <v>1.252525556315131</v>
+        <v>0.5809265660155499</v>
       </c>
       <c r="H67" t="n">
-        <v>1.487514608783163</v>
+        <v>1.962978232434382</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6448579677477208</v>
+        <v>-0.09457455830835655</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K67" t="n">
-        <v>1.336617527653121</v>
+        <v>0.8348669666167238</v>
       </c>
       <c r="L67" t="n">
-        <v>0.6693616670017956</v>
+        <v>0.6039719588801035</v>
       </c>
     </row>
     <row r="68">
@@ -3419,28 +3419,28 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.2338622990225294</v>
+        <v>-0.456020283072485</v>
       </c>
       <c r="F68" t="n">
-        <v>1.874895861650091</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1874114928691093</v>
+        <v>-0.5974096829647365</v>
       </c>
       <c r="H68" t="n">
-        <v>0.03861944821370795</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2850568425353122</v>
+        <v>-0.4213387234423756</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.1445310917354699</v>
+        <v>-0.6549983031589673</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.5916521331018516</v>
+        <v>-0.7202340977836144</v>
       </c>
     </row>
     <row r="69">
@@ -3463,28 +3463,28 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-0.2227155502982436</v>
+        <v>-0.8074290036080773</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02444956923031751</v>
+        <v>-0.4240385141621507</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.229163817284565</v>
+        <v>-1.382215441773322</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.9254889993008288</v>
+        <v>-1.520732176229729</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.6114942032668484</v>
+        <v>-1.124709521216328</v>
       </c>
       <c r="L69" t="n">
-        <v>-0.5916521331018516</v>
+        <v>-0.7202340977836144</v>
       </c>
     </row>
     <row r="70">
@@ -3507,28 +3507,28 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.7352026825904371</v>
+        <v>-0.07015972719026585</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08272676000252248</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7641678538486553</v>
+        <v>0.1812913294536573</v>
       </c>
       <c r="H70" t="n">
-        <v>1.064920186950405</v>
+        <v>1.442614772002072</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3287709979349506</v>
+        <v>-0.3816384043139434</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K70" t="n">
-        <v>0.307839422560553</v>
+        <v>-0.1999655606658991</v>
       </c>
       <c r="L70" t="n">
-        <v>0.6693616670017956</v>
+        <v>0.6039719588801035</v>
       </c>
     </row>
     <row r="71">
@@ -3551,28 +3551,28 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-0.3480506461902205</v>
+        <v>-0.9038941425786322</v>
       </c>
       <c r="F71" t="n">
-        <v>0.879246360734775</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5231574133148111</v>
+        <v>-0.8721589081010377</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.9273106588325954</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.189073612183843</v>
+        <v>-0.8519344924507557</v>
       </c>
       <c r="J71" t="n">
-        <v>1.306698406321575</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.07339218021311149</v>
+        <v>-0.5834407347830413</v>
       </c>
       <c r="L71" t="n">
-        <v>-1.192134895055969</v>
+        <v>-1.350808410480623</v>
       </c>
     </row>
     <row r="72">
@@ -3595,28 +3595,28 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.3621815638643153</v>
+        <v>-0.3572583550788218</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.5146629405466669</v>
+        <v>-1.13245277629743</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8036673739010908</v>
+        <v>0.2136147677049869</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.02175118347668601</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2245295504435051</v>
+        <v>-0.4763083960817432</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9079599838645511</v>
+        <v>0.4036867469156309</v>
       </c>
       <c r="L72" t="n">
-        <v>0.06887890504767785</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="73">
@@ -3639,28 +3639,28 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.797566828722432</v>
+        <v>0.7474971650363413</v>
       </c>
       <c r="F73" t="n">
-        <v>3.467935063114596</v>
+        <v>2.473367008928218</v>
       </c>
       <c r="G73" t="n">
-        <v>1.755246720618855</v>
+        <v>0.9923157801233806</v>
       </c>
       <c r="H73" t="n">
-        <v>0.7630670284984356</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I73" t="n">
-        <v>1.344284454141936</v>
+        <v>0.5406305477465589</v>
       </c>
       <c r="J73" t="n">
-        <v>4.342966462015527</v>
+        <v>2.268199203203028</v>
       </c>
       <c r="K73" t="n">
-        <v>1.560978710146713</v>
+        <v>1.060548528417721</v>
       </c>
       <c r="L73" t="n">
-        <v>2.050472019496266</v>
+        <v>2.054292878083223</v>
       </c>
     </row>
     <row r="74">
@@ -3683,28 +3683,28 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.4994533355555282</v>
+        <v>-0.2516060600158332</v>
       </c>
       <c r="F74" t="n">
-        <v>0.08272676000252248</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8198262684679962</v>
+        <v>0.2268379924441671</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.2028630785478679</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1169254756136259</v>
+        <v>-0.5740322585517302</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K74" t="n">
-        <v>1.030172985710654</v>
+        <v>0.5266189797665808</v>
       </c>
       <c r="L74" t="n">
-        <v>0.7894582193926191</v>
+        <v>0.7300868214195052</v>
       </c>
     </row>
     <row r="75">
@@ -3727,28 +3727,28 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-0.9210110845535436</v>
+        <v>-1.344877635015454</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.09763985638630135</v>
+        <v>-0.5239473233026238</v>
       </c>
       <c r="H75" t="n">
-        <v>1.608255872163951</v>
+        <v>2.111653506843613</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.7371818683485402</v>
+        <v>-1.349715416907252</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.279512616162509</v>
+        <v>-0.7907742021286732</v>
       </c>
       <c r="L75" t="n">
-        <v>1.329892705151325</v>
+        <v>1.297603702846813</v>
       </c>
     </row>
     <row r="76">
@@ -3771,28 +3771,28 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-1.109013728391509</v>
+        <v>-1.489575343471286</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6142278906381985</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2704238531932114</v>
+        <v>-0.2227516486879621</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6423257651176476</v>
+        <v>0.9222513115697627</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.6867424582720343</v>
+        <v>-1.303907356374446</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1309041810818666</v>
+        <v>-0.377942076882946</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.4115073045156163</v>
+        <v>-0.5310618039745119</v>
       </c>
     </row>
     <row r="77">
@@ -3815,28 +3815,28 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-0.1540796644526372</v>
+        <v>-0.7546028560765831</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2668329877338991</v>
+        <v>-0.2256901430744466</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2197313432848899</v>
+        <v>0.4018878511374532</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.09155741936926501</v>
+        <v>-0.76337224208733</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2786542280898418</v>
+        <v>-0.2293225117944842</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4291685622201484</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="78">
@@ -3859,28 +3859,28 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-1.088124545742846</v>
+        <v>-1.473497820309527</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6142278906381985</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.169513195991029</v>
+        <v>-1.401087897668249</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.5047162369998377</v>
+        <v>-0.4901637953179343</v>
       </c>
       <c r="I78" t="n">
-        <v>-1.651816504402513</v>
+        <v>-2.180368247902142</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K78" t="n">
-        <v>-1.19884624198991</v>
+        <v>-1.715518162679102</v>
       </c>
       <c r="L78" t="n">
-        <v>0.3691202860247367</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="79">
@@ -3903,28 +3903,28 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2.033316175757341</v>
+        <v>0.9289434978619087</v>
       </c>
       <c r="F79" t="n">
-        <v>1.476636061283964</v>
+        <v>0.6704571163153941</v>
       </c>
       <c r="G79" t="n">
-        <v>1.204048872614415</v>
+        <v>0.5412568917980092</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.3839749736190498</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I79" t="n">
-        <v>1.835228045553259</v>
+        <v>0.9864956702658745</v>
       </c>
       <c r="J79" t="n">
-        <v>4.700174468567756</v>
+        <v>2.503093619068714</v>
       </c>
       <c r="K79" t="n">
-        <v>1.591987979271844</v>
+        <v>1.091740288991843</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2490237336339131</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="80">
@@ -3947,28 +3947,28 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.3599873219894564</v>
+        <v>-0.913081298671066</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.18746752328759</v>
+        <v>-1.415780369600671</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.6858281320710197</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I80" t="n">
-        <v>0.103474966259891</v>
+        <v>-0.5862477413604786</v>
       </c>
       <c r="J80" t="n">
-        <v>0.7708863964932308</v>
+        <v>-0.08074495545382948</v>
       </c>
       <c r="K80" t="n">
-        <v>-1.324707393144852</v>
+        <v>-1.842120014421125</v>
       </c>
       <c r="L80" t="n">
-        <v>-1.55242455222844</v>
+        <v>-1.729152998098828</v>
       </c>
     </row>
     <row r="81">
@@ -3991,28 +3991,28 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-0.1660163402518731</v>
+        <v>-0.7637900121690169</v>
       </c>
       <c r="F81" t="n">
-        <v>1.277506161100901</v>
+        <v>0.4901661270541116</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5752249624748398</v>
+        <v>-0.914767076705063</v>
       </c>
       <c r="H81" t="n">
-        <v>-1.048051922213384</v>
+        <v>-1.159202530159475</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.1823483575069756</v>
+        <v>-0.8458267510463815</v>
       </c>
       <c r="J81" t="n">
-        <v>1.84251041614992</v>
+        <v>0.6239382921432278</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.1427070170810505</v>
+        <v>-0.6531634937134307</v>
       </c>
       <c r="L81" t="n">
-        <v>-1.252183171251381</v>
+        <v>-1.413865841750324</v>
       </c>
     </row>
     <row r="82">
@@ -4035,28 +4035,28 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.6098675866984602</v>
+        <v>-0.1666248661608206</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6142278906381985</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2219471694924951</v>
+        <v>-0.2624213229055029</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.9273106588325954</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6045064396865161</v>
+        <v>-0.1312210067346017</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3133116465238113</v>
+        <v>-0.1944611323292894</v>
       </c>
       <c r="L82" t="n">
-        <v>0.4892168384155602</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="83">
@@ -4079,28 +4079,28 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-0.9627894498508692</v>
+        <v>-1.377032681338972</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.656019435309367</v>
+        <v>-0.9808832004009643</v>
       </c>
       <c r="H83" t="n">
-        <v>-1.048051922213384</v>
+        <v>-1.159202530159475</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.8918627259164915</v>
+        <v>-1.490193469207858</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K83" t="n">
-        <v>0.4081635285536226</v>
+        <v>-0.09905104116138802</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4892168384155602</v>
+        <v>0.4147996650710009</v>
       </c>
     </row>
     <row r="84">
@@ -4123,28 +4123,28 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-0.3271614635415577</v>
+        <v>-0.8878166194168731</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.6649965989576478</v>
+        <v>-0.9882294363671756</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.9876812905229895</v>
+        <v>-1.084864892954859</v>
       </c>
       <c r="I84" t="n">
-        <v>0.005958773445313019</v>
+        <v>-0.6748099917239043</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.4856330521119065</v>
+        <v>-0.9981076694743051</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.1112659235385575</v>
+        <v>-0.2157746476260076</v>
       </c>
     </row>
     <row r="85">
@@ -4167,28 +4167,28 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-1.001583646198386</v>
+        <v>-1.406890938639382</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.29519348706696</v>
+        <v>-1.503935201195206</v>
       </c>
       <c r="H85" t="n">
-        <v>1.789367767235133</v>
+        <v>2.33466641845746</v>
       </c>
       <c r="I85" t="n">
-        <v>-1.191136559037093</v>
+        <v>-1.76198796170251</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K85" t="n">
-        <v>-1.507114858586797</v>
+        <v>-2.025600958974782</v>
       </c>
       <c r="L85" t="n">
-        <v>1.389940981346737</v>
+        <v>1.360661134116514</v>
       </c>
     </row>
     <row r="86">
@@ -4211,28 +4211,28 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.2607198195708102</v>
+        <v>-0.4353491818645089</v>
       </c>
       <c r="F86" t="n">
-        <v>1.675765961467027</v>
+        <v>0.8507481055766765</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4427853952402027</v>
+        <v>-0.08170391813670588</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.2632337102382619</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I86" t="n">
-        <v>0.05976081086025262</v>
+        <v>-0.6259480604889108</v>
       </c>
       <c r="J86" t="n">
-        <v>1.306698406321575</v>
+        <v>0.2715966683446991</v>
       </c>
       <c r="K86" t="n">
-        <v>0.4337005737154949</v>
+        <v>-0.07336370892387611</v>
       </c>
       <c r="L86" t="n">
-        <v>0.1289271812430896</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="87">
@@ -4255,28 +4255,28 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.2010364405746307</v>
+        <v>-0.4812849623266779</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1820251946801409</v>
+        <v>-0.5930019413850097</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.4443456053094438</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.4513585445816736</v>
+        <v>-1.090136407221349</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.124466270536856</v>
+        <v>-0.6348153992580651</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.3514590283202045</v>
+        <v>-0.468004372704811</v>
       </c>
     </row>
     <row r="88">
@@ -4299,28 +4299,28 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.2577356506210012</v>
+        <v>-0.4376459708876174</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.2159680902720722</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4908396241810003</v>
+        <v>-0.8457124586226771</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.2028630785478679</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I88" t="n">
-        <v>0.4330124454263961</v>
+        <v>-0.2869684125461434</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1290801064274472</v>
+        <v>-0.3797768863284826</v>
       </c>
       <c r="L88" t="n">
-        <v>-1.011990066469734</v>
+        <v>-1.16163611667152</v>
       </c>
     </row>
     <row r="89">
@@ -4343,28 +4343,28 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-0.983678632499532</v>
+        <v>-1.393110204500732</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2818566601855856</v>
+        <v>-0.4112888192523005</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.14622860092398</v>
+        <v>-2.200358370792034</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.6254575003806256</v>
+        <v>-0.6388390697271655</v>
       </c>
       <c r="I89" t="n">
-        <v>-1.352542671281912</v>
+        <v>-1.90857375540749</v>
       </c>
       <c r="J89" t="n">
-        <v>1.12809440304546</v>
+        <v>0.1541494604118563</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.269578064134126</v>
+        <v>-2.792551307209066</v>
       </c>
       <c r="L89" t="n">
-        <v>-1.432327999837616</v>
+        <v>-1.603038135559426</v>
       </c>
     </row>
     <row r="90">
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-0.6345308653718821</v>
+        <v>-1.124385888797043</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3155330403636038</v>
+        <v>-0.9521617870361478</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5357254424224043</v>
+        <v>-0.8824436384537334</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.6254575003806256</v>
+        <v>-0.6388390697271655</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.2294251402450477</v>
+        <v>-0.8885809408770009</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.9580683876065434</v>
+        <v>-1.473323315868275</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3090720098293249</v>
+        <v>0.2256273712618984</v>
       </c>
     </row>
     <row r="91">
@@ -4431,28 +4431,28 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.6844718104436845</v>
+        <v>-0.1092051405831095</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6142278906381985</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G91" t="n">
-        <v>1.326138298231033</v>
+        <v>0.6411657009384822</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.08212181516707998</v>
+        <v>0.0301996651143751</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7726378066082024</v>
+        <v>0.021472528374753</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.4363830364425815</v>
+        <v>-0.9485678144448179</v>
       </c>
       <c r="L91" t="n">
-        <v>-1.372279723642205</v>
+        <v>-1.539980704289726</v>
       </c>
     </row>
     <row r="92">
@@ -4475,28 +4475,28 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.25146391090739</v>
+        <v>0.3271847738074955</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G92" t="n">
-        <v>1.616998400435331</v>
+        <v>0.8791837462437272</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.1424924468574739</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I92" t="n">
-        <v>1.428350137602779</v>
+        <v>0.6169773153012362</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K92" t="n">
-        <v>1.781691743331466</v>
+        <v>1.282560471327646</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9095547717834426</v>
+        <v>0.8562016839589068</v>
       </c>
     </row>
     <row r="93">
@@ -4519,28 +4519,28 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.7352026825904371</v>
+        <v>-0.07015972719026585</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4150979904551353</v>
+        <v>-1.042307281666789</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1932202458179965</v>
+        <v>-0.2859292779973789</v>
       </c>
       <c r="H93" t="n">
-        <v>0.7630670284984356</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9441318008683223</v>
+        <v>0.1772199341862948</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.1810125848238589</v>
+        <v>-0.6916944920696987</v>
       </c>
       <c r="L93" t="n">
-        <v>1.930375467105443</v>
+        <v>1.928178015543821</v>
       </c>
     </row>
     <row r="94">
@@ -4563,28 +4563,28 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.6993926551927294</v>
+        <v>-0.09772119546756722</v>
       </c>
       <c r="F94" t="n">
-        <v>2.770980412473875</v>
+        <v>1.84234854651373</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8162354030086839</v>
+        <v>0.2238994980576826</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2197313432848899</v>
+        <v>0.4018878511374532</v>
       </c>
       <c r="I94" t="n">
-        <v>0.1841780223823004</v>
+        <v>-0.5129548445079883</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K94" t="n">
-        <v>1.006460015203201</v>
+        <v>0.5027664569746054</v>
       </c>
       <c r="L94" t="n">
-        <v>0.7894582193926191</v>
+        <v>0.7300868214195052</v>
       </c>
     </row>
     <row r="95">
@@ -4607,28 +4607,28 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-0.8792327192562179</v>
+        <v>-1.312722588691936</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.059991799482003</v>
+        <v>-1.311463818880471</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.9273106588325954</v>
+        <v>-1.010527255750244</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.7573576323791426</v>
+        <v>-1.368038641120374</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.7701886982013403</v>
+        <v>-1.284337942978009</v>
       </c>
       <c r="L95" t="n">
-        <v>-1.432327999837616</v>
+        <v>-1.603038135559426</v>
       </c>
     </row>
     <row r="96">
@@ -4651,28 +4651,28 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-1.386541440723744</v>
+        <v>-1.703176722620372</v>
       </c>
       <c r="F96" t="n">
-        <v>0.182291710094054</v>
+        <v>-0.5014343138829418</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.160592062761229</v>
+        <v>-2.212112348337972</v>
       </c>
       <c r="H96" t="n">
-        <v>-1.048051922213384</v>
+        <v>-1.159202530159475</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.5085232093350469</v>
+        <v>-1.14205220915853</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.1221336198873432</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K96" t="n">
-        <v>-1.543596351675186</v>
+        <v>-2.062297147885513</v>
       </c>
       <c r="L96" t="n">
-        <v>-0.7717969616880869</v>
+        <v>-0.909406391592717</v>
       </c>
     </row>
     <row r="97">
@@ -4695,28 +4695,28 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-0.4912907557810513</v>
+        <v>-1.014140015687838</v>
       </c>
       <c r="F97" t="n">
-        <v>0.182291710094054</v>
+        <v>-0.5014343138829418</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05454947087455352</v>
+        <v>-0.4886853906648098</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.8065693954518075</v>
+        <v>-0.8618519813410125</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.147422403637455</v>
+        <v>-1.722287642574077</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.3579478263025452</v>
+        <v>-0.8696710082867455</v>
       </c>
       <c r="L97" t="n">
-        <v>-0.5316038569064399</v>
+        <v>-0.6571766665139136</v>
       </c>
     </row>
     <row r="98">
@@ -4739,28 +4739,28 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.4815483218566743</v>
+        <v>-0.2653867941544839</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.2159680902720722</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9544837231922082</v>
+        <v>0.337031531937336</v>
       </c>
       <c r="H98" t="n">
-        <v>1.366773345402375</v>
+        <v>1.81430295802515</v>
       </c>
       <c r="I98" t="n">
-        <v>1.031560111667599</v>
+        <v>0.2566205724431592</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.1221336198873432</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K98" t="n">
-        <v>0.9152562824822289</v>
+        <v>0.4110259846977772</v>
       </c>
       <c r="L98" t="n">
-        <v>0.4291685622201484</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="99">
@@ -4783,28 +4783,28 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1.209685545610064</v>
+        <v>0.2950297274839773</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.6142278906381985</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9239613667880535</v>
+        <v>0.3120543296522177</v>
       </c>
       <c r="H99" t="n">
-        <v>1.366773345402375</v>
+        <v>1.81430295802515</v>
       </c>
       <c r="I99" t="n">
-        <v>0.214441668428204</v>
+        <v>-0.4854700081883045</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7146080704960898</v>
+        <v>0.209196945688755</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3090720098293249</v>
+        <v>0.2256273712618984</v>
       </c>
     </row>
     <row r="100">
@@ -4827,28 +4827,28 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-0.09738045440626671</v>
+        <v>-0.7109638646375226</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.6142278906381985</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.9863790575661003</v>
+        <v>-1.251224683957539</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1593607115944959</v>
+        <v>0.3275502139328376</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.2058867488760117</v>
+        <v>-0.8672038459616912</v>
       </c>
       <c r="J100" t="n">
-        <v>1.48530240959769</v>
+        <v>0.3890438762775421</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.6297349498110429</v>
+        <v>-1.143057615671694</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.231362475929381</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="101">
@@ -4871,28 +4871,28 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-0.9239952535033525</v>
+        <v>-1.347174424038563</v>
       </c>
       <c r="F101" t="n">
-        <v>0.08272676000252248</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.21080814877312</v>
+        <v>-1.43488058311282</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.8669400271422015</v>
+        <v>-0.9361896185456281</v>
       </c>
       <c r="I101" t="n">
-        <v>-1.379443689989382</v>
+        <v>-1.933004721024987</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K101" t="n">
-        <v>-1.523531530476572</v>
+        <v>-2.042114243984611</v>
       </c>
       <c r="L101" t="n">
-        <v>-1.132086618860557</v>
+        <v>-1.287750979210922</v>
       </c>
     </row>
     <row r="102">
@@ -4915,28 +4915,28 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-0.3122406187925129</v>
+        <v>-0.8763326743013308</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2233201474622325</v>
+        <v>-0.6267946268295815</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.8065693954518075</v>
+        <v>-0.8618519813410125</v>
       </c>
       <c r="I102" t="n">
-        <v>0.385935662688324</v>
+        <v>-0.3297226023767628</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K102" t="n">
-        <v>0.6927191746430563</v>
+        <v>0.1871792323423162</v>
       </c>
       <c r="L102" t="n">
-        <v>0.4291685622201484</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="103">
@@ -4959,28 +4959,28 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-1.637211632507698</v>
+        <v>-1.896107000561481</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G103" t="n">
-        <v>-1.573485560163665</v>
+        <v>-1.731668516147755</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.8669400271422015</v>
+        <v>-0.9361896185456281</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.8851374712396242</v>
+        <v>-1.484085727803484</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K103" t="n">
-        <v>-1.131355479776391</v>
+        <v>-1.647630213194249</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.7117486854926751</v>
+        <v>-0.8463489603230161</v>
       </c>
     </row>
     <row r="104">
@@ -5003,28 +5003,28 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.8881852261056449</v>
+        <v>-1.319612955761261</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.9361069411357279</v>
+        <v>-1.210085762546756</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5819551334272537</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I104" t="n">
-        <v>-1.026367819453841</v>
+        <v>-1.612348297295342</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1910986446777084</v>
+        <v>-0.3173933651802393</v>
       </c>
       <c r="L104" t="n">
-        <v>0.008830628852266084</v>
+        <v>-0.08965978508660589</v>
       </c>
     </row>
     <row r="105">
@@ -5047,28 +5047,28 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1.245495573007772</v>
+        <v>0.3225911957612786</v>
       </c>
       <c r="F105" t="n">
-        <v>1.775330911558559</v>
+        <v>0.9408936002073177</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6726007846361911</v>
+        <v>0.1063597225983024</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4612138700464657</v>
+        <v>0.6992383999559157</v>
       </c>
       <c r="I105" t="n">
-        <v>1.055098503036635</v>
+        <v>0.2779976673584689</v>
       </c>
       <c r="J105" t="n">
-        <v>3.985758455463297</v>
+        <v>2.033304787337342</v>
       </c>
       <c r="K105" t="n">
-        <v>0.4647098428406254</v>
+        <v>-0.0421719483497545</v>
       </c>
       <c r="L105" t="n">
-        <v>1.51003753373756</v>
+        <v>1.486775996655915</v>
       </c>
     </row>
     <row r="106">
@@ -5091,28 +5091,28 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.5084058424049551</v>
+        <v>-0.2447156929465078</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3814216102771172</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G106" t="n">
-        <v>0.05856279109378455</v>
+        <v>-0.3961228174905479</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.6858281320710197</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5574296569484439</v>
+        <v>-0.173975196565221</v>
       </c>
       <c r="J106" t="n">
-        <v>0.592282393217116</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K106" t="n">
-        <v>0.4501172456052699</v>
+        <v>-0.05685042391404702</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.231362475929381</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="107">
@@ -5135,28 +5135,28 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1.165712938437879</v>
+        <v>-1.533214334910347</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G107" t="n">
-        <v>-1.639916571160942</v>
+        <v>-1.786030662297719</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.3236043419286558</v>
+        <v>-0.2671508837040874</v>
       </c>
       <c r="I107" t="n">
-        <v>-1.016279937438539</v>
+        <v>-1.603186685188781</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K107" t="n">
-        <v>-1.445096320336536</v>
+        <v>-1.963217437826539</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.1713141997339692</v>
+        <v>-0.2788320788957084</v>
       </c>
     </row>
     <row r="108">
@@ -5179,28 +5179,28 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-0.9538369430014423</v>
+        <v>-1.370142314269647</v>
       </c>
       <c r="F108" t="n">
-        <v>1.078376260917838</v>
+        <v>0.3098751377928292</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.4567264023175333</v>
+        <v>-0.8177967619510743</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.08212181516707998</v>
+        <v>0.0301996651143751</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.7069182223026367</v>
+        <v>-1.322230580587568</v>
       </c>
       <c r="J108" t="n">
-        <v>0.9494903997693456</v>
+        <v>0.0367022524790134</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1619134502069972</v>
+        <v>-0.3467503163088244</v>
       </c>
       <c r="L108" t="n">
-        <v>0.4291685622201484</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="109">
@@ -5223,28 +5223,28 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-0.8852010571558359</v>
+        <v>-1.317316166738153</v>
       </c>
       <c r="F109" t="n">
-        <v>1.277506161100901</v>
+        <v>0.4901661270541116</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.1137987509532068</v>
+        <v>-0.5371705480418041</v>
       </c>
       <c r="H109" t="n">
-        <v>-1.712128870807717</v>
+        <v>-1.976916539410247</v>
       </c>
       <c r="I109" t="n">
-        <v>-1.130609266945286</v>
+        <v>-1.707018289063142</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.5002256493472621</v>
+        <v>-1.012786145038598</v>
       </c>
       <c r="L109" t="n">
-        <v>-2.212955590377969</v>
+        <v>-2.422784742065538</v>
       </c>
     </row>
     <row r="110">
@@ -5267,28 +5267,28 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-0.4286232078350629</v>
+        <v>-0.9659074462025603</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.6416559734721177</v>
+        <v>-0.9691292228550263</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.1424924468574739</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1371012396442283</v>
+        <v>-0.5557090343386076</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K110" t="n">
-        <v>0.254941257582389</v>
+        <v>-0.2531750345864595</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.2914107521247927</v>
+        <v>-0.4049469414351101</v>
       </c>
     </row>
     <row r="111">
@@ -5311,28 +5311,28 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1.39470402049822</v>
+        <v>0.437430646916701</v>
       </c>
       <c r="F111" t="n">
-        <v>3.169240212840001</v>
+        <v>2.202930525036295</v>
       </c>
       <c r="G111" t="n">
-        <v>1.685224844162265</v>
+        <v>0.9350151395869327</v>
       </c>
       <c r="H111" t="n">
-        <v>0.8234376601888295</v>
+        <v>1.14526422318361</v>
       </c>
       <c r="I111" t="n">
-        <v>1.586393622509164</v>
+        <v>0.7605092383040296</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.1221336198873432</v>
+        <v>-0.6679809951180439</v>
       </c>
       <c r="K111" t="n">
-        <v>1.978691806008767</v>
+        <v>1.480719891445595</v>
       </c>
       <c r="L111" t="n">
-        <v>0.8495064955880308</v>
+        <v>0.793144252689206</v>
       </c>
     </row>
     <row r="112">
@@ -5355,28 +5355,28 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.633740938296932</v>
+        <v>-0.148250553975953</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1788567839807473</v>
+        <v>-0.297683255543317</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.2028630785478679</v>
+        <v>-0.1184756092948562</v>
       </c>
       <c r="I112" t="n">
-        <v>0.3321336252733844</v>
+        <v>-0.3785845336117563</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.4053737673174509</v>
+        <v>-0.9173760538706962</v>
       </c>
       <c r="L112" t="n">
-        <v>-0.3514590283202045</v>
+        <v>-0.468004372704811</v>
       </c>
     </row>
     <row r="113">
@@ -5399,28 +5399,28 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.3293557054164166</v>
+        <v>-0.3825230343330147</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G113" t="n">
-        <v>0.01367697285238055</v>
+        <v>-0.4328539973216042</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.1424924468574739</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I113" t="n">
-        <v>1.152614695851213</v>
+        <v>0.3665599177218946</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K113" t="n">
-        <v>0.2877746013619391</v>
+        <v>-0.2201484645668013</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3691202860247367</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="114">
@@ -5443,28 +5443,28 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-0.01083955486180645</v>
+        <v>-0.6443569829673776</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.2159680902720722</v>
+        <v>-0.8620162924055066</v>
       </c>
       <c r="G114" t="n">
-        <v>0.7426226610927814</v>
+        <v>0.1636603631347503</v>
       </c>
       <c r="H114" t="n">
-        <v>-1.168793185594171</v>
+        <v>-1.307877804568706</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2178042957666377</v>
+        <v>-0.4824161374861174</v>
       </c>
       <c r="J114" t="n">
-        <v>2.021114419426034</v>
+        <v>0.7413855000760706</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5996913672676646</v>
+        <v>0.09360395061995135</v>
       </c>
       <c r="L114" t="n">
-        <v>0.008830628852266084</v>
+        <v>-0.08965978508660589</v>
       </c>
     </row>
     <row r="115">
@@ -5487,28 +5487,28 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.5054216734551461</v>
+        <v>-0.2470124819696163</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3814216102771172</v>
+        <v>-0.3211433246216593</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.07968552908973975</v>
+        <v>-0.5092548513702013</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.7461987637614136</v>
+        <v>-0.7875143441363969</v>
       </c>
       <c r="I115" t="n">
-        <v>0.5641549116253114</v>
+        <v>-0.1678674551608468</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0652374935227665</v>
+        <v>-0.4439952169222623</v>
       </c>
       <c r="L115" t="n">
-        <v>0.4291685622201484</v>
+        <v>0.3517422338013</v>
       </c>
     </row>
     <row r="116">
@@ -5531,28 +5531,28 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.5442158698026628</v>
+        <v>-0.2171542246692065</v>
       </c>
       <c r="F116" t="n">
-        <v>1.874895861650091</v>
+        <v>1.031039094837959</v>
       </c>
       <c r="G116" t="n">
-        <v>0.7875084793341853</v>
+        <v>0.2003915429658066</v>
       </c>
       <c r="H116" t="n">
-        <v>0.7630670284984356</v>
+        <v>1.070926585978994</v>
       </c>
       <c r="I116" t="n">
-        <v>0.6314074583939858</v>
+        <v>-0.1067900411171049</v>
       </c>
       <c r="J116" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5303765303997255</v>
+        <v>0.02388119168956186</v>
       </c>
       <c r="L116" t="n">
-        <v>1.750230638519207</v>
+        <v>1.739005721734719</v>
       </c>
     </row>
     <row r="117">
@@ -5575,28 +5575,28 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>-1.804325093697</v>
+        <v>-2.024727185855554</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.6142278906381985</v>
+        <v>-1.222598270928071</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.5141802496665304</v>
+        <v>-0.8648126721348264</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.1424924468574739</v>
+        <v>-0.04413797209024053</v>
       </c>
       <c r="I117" t="n">
-        <v>-1.850211517370103</v>
+        <v>-2.36054661933118</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.4455034097146787</v>
+        <v>-0.9577418616725006</v>
       </c>
       <c r="L117" t="n">
-        <v>0.7894582193926191</v>
+        <v>0.7300868214195052</v>
       </c>
     </row>
     <row r="118">
@@ -5619,28 +5619,28 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.403959929161641</v>
+        <v>-0.3251033087553035</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08908514749793926</v>
+        <v>-0.3711456152054296</v>
       </c>
       <c r="H118" t="n">
-        <v>0.5819551334272537</v>
+        <v>0.8479136743651471</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.03775538195432541</v>
+        <v>-0.7145103108523365</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K118" t="n">
-        <v>0.3169597958326502</v>
+        <v>-0.1907915134382163</v>
       </c>
       <c r="L118" t="n">
-        <v>0.5492651146109719</v>
+        <v>0.4778570963407018</v>
       </c>
     </row>
     <row r="119">
@@ -5663,28 +5663,28 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1.152986335563694</v>
+        <v>0.2513907360449167</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1106303402538132</v>
+        <v>-0.3535146488865226</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.4443456053094438</v>
+        <v>-0.4158261581133187</v>
       </c>
       <c r="I119" t="n">
-        <v>0.8062640799925396</v>
+        <v>0.05201123539662394</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.6315590244654623</v>
+        <v>-1.14489242511723</v>
       </c>
       <c r="L119" t="n">
-        <v>-2.273003866573381</v>
+        <v>-2.485842173335238</v>
       </c>
     </row>
     <row r="120">
@@ -5707,28 +5707,28 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.5621208835015166</v>
+        <v>-0.2033734905305558</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G120" t="n">
-        <v>0.5038301080485121</v>
+        <v>-0.0317495135664693</v>
       </c>
       <c r="H120" t="n">
-        <v>0.5215845017368597</v>
+        <v>0.7735760371605315</v>
       </c>
       <c r="I120" t="n">
-        <v>0.2716063331815773</v>
+        <v>-0.4335542062511239</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K120" t="n">
-        <v>0.6142839645030201</v>
+        <v>0.1082824261842439</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2490237336339131</v>
+        <v>0.1625699399921975</v>
       </c>
     </row>
     <row r="121">
@@ -5751,28 +5751,28 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>-0.7330084407155782</v>
+        <v>-1.200179926559622</v>
       </c>
       <c r="F121" t="n">
-        <v>0.182291710094054</v>
+        <v>-0.5014343138829418</v>
       </c>
       <c r="G121" t="n">
-        <v>-1.015105981240599</v>
+        <v>-1.274732639049415</v>
       </c>
       <c r="H121" t="n">
-        <v>0.5215845017368597</v>
+        <v>0.7735760371605315</v>
       </c>
       <c r="I121" t="n">
-        <v>-1.261751733144201</v>
+        <v>-1.826119246448439</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K121" t="n">
-        <v>-1.290049974710883</v>
+        <v>-1.80725863495593</v>
       </c>
       <c r="L121" t="n">
-        <v>0.008830628852266084</v>
+        <v>-0.08965978508660589</v>
       </c>
     </row>
     <row r="122">
@@ -5795,28 +5795,28 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-0.8852010571558359</v>
+        <v>-1.317316166738153</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6801164605517119</v>
+        <v>-0.05070684072973568</v>
       </c>
       <c r="G122" t="n">
-        <v>-1.307761516174553</v>
+        <v>-1.514219931547902</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.2632337102382619</v>
+        <v>-0.1928132464994718</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.7775333964097449</v>
+        <v>-1.386361865333497</v>
       </c>
       <c r="J122" t="n">
-        <v>0.2350743866648864</v>
+        <v>-0.4330865792523581</v>
       </c>
       <c r="K122" t="n">
-        <v>-1.071161016180549</v>
+        <v>-1.587081501491542</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.231362475929381</v>
+        <v>-0.3418895101654093</v>
       </c>
     </row>
     <row r="123">
@@ -5839,28 +5839,28 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-1.77448340419891</v>
+        <v>-2.00175929562447</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G123" t="n">
-        <v>-1.081536992237877</v>
+        <v>-1.329094785199378</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.3839749736190498</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.3773807431361316</v>
+        <v>-1.022951251773233</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K123" t="n">
-        <v>-0.02231808988936696</v>
+        <v>-0.5320660703080174</v>
       </c>
       <c r="L123" t="n">
-        <v>-1.011990066469734</v>
+        <v>-1.16163611667152</v>
       </c>
     </row>
     <row r="124">
@@ -5883,28 +5883,28 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-1.317905554878137</v>
+        <v>-1.650350575088878</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4809865603686487</v>
+        <v>-0.2309978299910181</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.6362696752831493</v>
+        <v>-0.9647214812752996</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.3839749736190498</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I124" t="n">
-        <v>-1.285290124513237</v>
+        <v>-1.847496341363748</v>
       </c>
       <c r="J124" t="n">
-        <v>0.592282393217116</v>
+        <v>-0.1981921633866724</v>
       </c>
       <c r="K124" t="n">
-        <v>-0.2430311230741201</v>
+        <v>-0.7540780132179419</v>
       </c>
       <c r="L124" t="n">
-        <v>-1.792617657010087</v>
+        <v>-1.981382723177631</v>
       </c>
     </row>
     <row r="125">
@@ -5927,28 +5927,28 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-0.6733250617193988</v>
+        <v>-1.154244146097453</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.8140175155191091</v>
+        <v>-1.110176953406283</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.6858281320710197</v>
+        <v>-0.7131767069317813</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.8918627259164915</v>
+        <v>-1.490193469207858</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.8887535507386044</v>
+        <v>-1.403600556937886</v>
       </c>
       <c r="L125" t="n">
-        <v>-1.072038342665146</v>
+        <v>-1.224693547941221</v>
       </c>
     </row>
     <row r="126">
@@ -5971,28 +5971,28 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.1890997647753948</v>
+        <v>-0.4904721184191117</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5805515104601803</v>
+        <v>-0.1408523353603769</v>
       </c>
       <c r="G126" t="n">
-        <v>0.3601954896760194</v>
+        <v>-0.1492892890258495</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.02175118347668601</v>
+        <v>0.1045373023189907</v>
       </c>
       <c r="I126" t="n">
-        <v>0.09674971158302359</v>
+        <v>-0.5923554827648528</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K126" t="n">
-        <v>0.2239319884572584</v>
+        <v>-0.2843667951605811</v>
       </c>
       <c r="L126" t="n">
-        <v>-0.6517004092972634</v>
+        <v>-0.7832915290533152</v>
       </c>
     </row>
     <row r="127">
@@ -6015,28 +6015,28 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.5472000387524717</v>
+        <v>-0.214857435646098</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G127" t="n">
-        <v>0.8359851630349017</v>
+        <v>0.2400612171833474</v>
       </c>
       <c r="H127" t="n">
-        <v>0.5215845017368597</v>
+        <v>0.7735760371605315</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4565508367954322</v>
+        <v>-0.2655913176308338</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K127" t="n">
-        <v>0.7948673552905454</v>
+        <v>0.2899285612923638</v>
       </c>
       <c r="L127" t="n">
-        <v>0.9095547717834426</v>
+        <v>0.8562016839589068</v>
       </c>
     </row>
     <row r="128">
@@ -6059,28 +6059,28 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-1.514860705565529</v>
+        <v>-1.801938650614035</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G128" t="n">
-        <v>-1.508849981896043</v>
+        <v>-1.678775617191034</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.3839749736190498</v>
+        <v>-0.3414885209087031</v>
       </c>
       <c r="I128" t="n">
-        <v>-1.571113448280104</v>
+        <v>-2.107075351049651</v>
       </c>
       <c r="J128" t="n">
-        <v>1.12809440304546</v>
+        <v>0.1541494604118563</v>
       </c>
       <c r="K128" t="n">
-        <v>-1.532651903748669</v>
+        <v>-2.051288291212294</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1289271812430896</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="129">
@@ -6103,28 +6103,28 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1.636421705432747</v>
+        <v>0.6234705577884853</v>
       </c>
       <c r="F129" t="n">
-        <v>0.182291710094054</v>
+        <v>-0.5014343138829418</v>
       </c>
       <c r="G129" t="n">
-        <v>2.927664293084328</v>
+        <v>1.951734197310572</v>
       </c>
       <c r="H129" t="n">
-        <v>2.876039137662224</v>
+        <v>3.672743888140541</v>
       </c>
       <c r="I129" t="n">
-        <v>1.455251156310249</v>
+        <v>0.6414082809187329</v>
       </c>
       <c r="J129" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K129" t="n">
-        <v>3.18805330188886</v>
+        <v>2.697198553836337</v>
       </c>
       <c r="L129" t="n">
-        <v>1.930375467105443</v>
+        <v>1.928178015543821</v>
       </c>
     </row>
     <row r="130">
@@ -6147,28 +6147,28 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>-0.2406205639970975</v>
+        <v>-0.8212097377467281</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6801164605517119</v>
+        <v>-0.05070684072973568</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5307615989933545</v>
+        <v>-0.009710805667835512</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9441789235696174</v>
+        <v>1.293939497592841</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.6161272841649261</v>
+        <v>-1.239776071628517</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.4345589617881621</v>
+        <v>-0.9467330049992813</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.3514590283202045</v>
+        <v>-0.468004372704811</v>
       </c>
     </row>
     <row r="131">
@@ -6191,28 +6191,28 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.1234480478795974</v>
+        <v>-0.5410014769274976</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G131" t="n">
-        <v>0.6779870828251596</v>
+        <v>0.1107674641780292</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4008432383560717</v>
+        <v>0.6249007627513001</v>
       </c>
       <c r="I131" t="n">
-        <v>0.07993657489085497</v>
+        <v>-0.6076248362757882</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K131" t="n">
-        <v>0.7875710566728676</v>
+        <v>0.2825893235102176</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1289271812430896</v>
+        <v>0.0364550774527958</v>
       </c>
     </row>
     <row r="132">
@@ -6235,28 +6235,28 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.7799652168375717</v>
+        <v>-0.03570789184363914</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2818566601855856</v>
+        <v>-0.4112888192523005</v>
       </c>
       <c r="G132" t="n">
-        <v>0.8234171339273085</v>
+        <v>0.2297764868306516</v>
       </c>
       <c r="H132" t="n">
-        <v>0.03861944821370795</v>
+        <v>0.1788749395236064</v>
       </c>
       <c r="I132" t="n">
-        <v>0.5742427936406126</v>
+        <v>-0.1587058430542855</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K132" t="n">
-        <v>0.9900433433134262</v>
+        <v>0.4862531719647764</v>
       </c>
       <c r="L132" t="n">
-        <v>1.630134086128384</v>
+        <v>1.612890859195317</v>
       </c>
     </row>
     <row r="133">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>-1.923691851689359</v>
+        <v>-2.116598746779892</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G133" t="n">
-        <v>-1.124627377749625</v>
+        <v>-1.364356717837192</v>
       </c>
       <c r="H133" t="n">
-        <v>-1.289534448974959</v>
+        <v>-1.456553078977938</v>
       </c>
       <c r="I133" t="n">
-        <v>-1.22476283242143</v>
+        <v>-1.792526668724381</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.7191146078775958</v>
+        <v>-1.232963278502985</v>
       </c>
       <c r="L133" t="n">
-        <v>-1.011990066469734</v>
+        <v>-1.16163611667152</v>
       </c>
     </row>
     <row r="134">
@@ -6323,28 +6323,28 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2.41230563238308</v>
+        <v>1.220635703796682</v>
       </c>
       <c r="F134" t="n">
-        <v>0.879246360734775</v>
+        <v>0.1295841485315467</v>
       </c>
       <c r="G134" t="n">
-        <v>1.633157295002237</v>
+        <v>0.8924069709829074</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.9876812905229895</v>
+        <v>-1.084864892954859</v>
       </c>
       <c r="I134" t="n">
-        <v>2.682610134838558</v>
+        <v>1.756071087217022</v>
       </c>
       <c r="J134" t="n">
-        <v>2.199718422702149</v>
+        <v>0.8588327080089135</v>
       </c>
       <c r="K134" t="n">
-        <v>0.997339641931104</v>
+        <v>0.4935924097469226</v>
       </c>
       <c r="L134" t="n">
-        <v>-1.312231447446793</v>
+        <v>-1.476923273020025</v>
       </c>
     </row>
     <row r="135">
@@ -6367,28 +6367,28 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.8396485958337512</v>
+        <v>0.0102278886185298</v>
       </c>
       <c r="F135" t="n">
-        <v>0.08272676000252248</v>
+        <v>-0.5915798085135829</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4212402024843288</v>
+        <v>-0.09933488445561291</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.5047162369998377</v>
+        <v>-0.4901637953179343</v>
       </c>
       <c r="I135" t="n">
-        <v>1.048373248359768</v>
+        <v>0.2718899259540947</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K135" t="n">
-        <v>0.4683579921494643</v>
+        <v>-0.03850232945868137</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3691202860247367</v>
+        <v>0.2886848025315992</v>
       </c>
     </row>
     <row r="136">
@@ -6411,28 +6411,28 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-0.7956759886615666</v>
+        <v>-1.248412496044899</v>
       </c>
       <c r="F136" t="n">
-        <v>1.775330911558559</v>
+        <v>0.9408936002073177</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.6075427516086507</v>
+        <v>-0.9412135261834236</v>
       </c>
       <c r="H136" t="n">
-        <v>0.2197313432848899</v>
+        <v>0.4018878511374532</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.5825010107805889</v>
+        <v>-1.209237364606646</v>
       </c>
       <c r="J136" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.0624477322865948</v>
+        <v>-0.5724318781098219</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06887890504767785</v>
+        <v>-0.02660235381690505</v>
       </c>
     </row>
     <row r="137">
@@ -6455,28 +6455,28 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-0.2823989292944231</v>
+        <v>-0.8533647840702463</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.8133577908212616</v>
+        <v>-1.402889260189354</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.2771831293519173</v>
+        <v>-0.6708720426268491</v>
       </c>
       <c r="H137" t="n">
-        <v>1.608255872163951</v>
+        <v>2.111653506843613</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.04784326396962658</v>
+        <v>-0.7236719229588978</v>
       </c>
       <c r="J137" t="n">
-        <v>-0.4793416264395727</v>
+        <v>-0.9028754109837296</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.03326253781588365</v>
+        <v>-0.5430749269812368</v>
       </c>
       <c r="L137" t="n">
-        <v>1.51003753373756</v>
+        <v>1.486775996655915</v>
       </c>
     </row>
   </sheetData>
